--- a/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/composite/mapid/BasePolicyMS.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/composite/mapid/BasePolicyMS.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -27,15 +26,6 @@
     <t>org.openl.rules.mapping</t>
   </si>
   <si>
-    <t>org.openl.rules.mapping.composite.mapId.source</t>
-  </si>
-  <si>
-    <t>org.openl.rules.mapping.composite.mapId.destination</t>
-  </si>
-  <si>
-    <t>org.openl.rules.mapping.composite.mapId</t>
-  </si>
-  <si>
     <t>include</t>
   </si>
   <si>
@@ -123,57 +113,48 @@
     <t>yyyy-MM-dd</t>
   </si>
   <si>
-    <t>org.openl.rules.mapping.composite.mapId.DestLocBeanCreateFactory</t>
+    <t>org.openl.rules.mapping.composite.mapid.destination</t>
+  </si>
+  <si>
+    <t>org.openl.rules.mapping.composite.mapid.source</t>
+  </si>
+  <si>
+    <t>org.openl.rules.mapping.composite.mapid</t>
+  </si>
+  <si>
+    <t>org.openl.rules.mapping.composite.mapid.DestLocBeanCreateFactory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
@@ -185,149 +166,119 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00003366"/>
-        <bgColor rgb="00333399"/>
+        <fgColor rgb="FF003366"/>
+        <bgColor rgb="FF333399"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFFF"/>
-        <bgColor rgb="00CCFFFF"/>
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thin">
-        <color rgb="001A1A1A"/>
+        <color rgb="FF1A1A1A"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="001A1A1A"/>
+        <color rgb="FF1A1A1A"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thin">
-        <color rgb="001A1A1A"/>
+        <color rgb="FF1A1A1A"/>
       </left>
       <right style="thin">
-        <color rgb="001A1A1A"/>
+        <color rgb="FF1A1A1A"/>
       </right>
       <top style="thin">
-        <color rgb="001A1A1A"/>
+        <color rgb="FF1A1A1A"/>
       </top>
       <bottom style="thin">
-        <color rgb="001A1A1A"/>
+        <color rgb="FF1A1A1A"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -386,241 +337,536 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="001A1A1A"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:I25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I31" activeCellId="0" pane="topLeft" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.8823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.1686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.2705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.64705882352941"/>
+    <col min="1" max="2" width="8.7109375"/>
+    <col min="3" max="3" width="20.85546875"/>
+    <col min="4" max="4" width="27.7109375"/>
+    <col min="5" max="5" width="32.85546875"/>
+    <col min="6" max="6" width="27.140625"/>
+    <col min="7" max="7" width="13.7109375"/>
+    <col min="8" max="8" width="8.7109375"/>
+    <col min="9" max="9" width="56.28515625"/>
+    <col min="10" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="C5" s="2" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="13"/>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="13"/>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+    <row r="10" spans="3:6" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="9">
-      <c r="C9" s="2" t="s">
+    <row r="12" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="10">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="C12" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="C13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6" t="s">
+    </row>
+    <row r="15" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="C15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3" t="s">
+    </row>
+    <row r="19" spans="3:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="3:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="19">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="20">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="21">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="22">
-      <c r="C22" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="23">
-      <c r="C23" s="11" t="s">
+      <c r="F23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="H23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="I23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="11" t="s">
+    </row>
+    <row r="24" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="11" t="s">
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="D25" s="10" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.55" outlineLevel="0" r="24">
-      <c r="C24" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="H25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="25">
-      <c r="C25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="14" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -632,35 +878,27 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C22:I22"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.25882352941177"/>
+    <col min="1" max="1025" width="9.28515625"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
